--- a/data/stimuli_toy/multipleye_comprehension_questions_toy.xlsx
+++ b/data/stimuli_toy/multipleye_comprehension_questions_toy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/stimuli_toy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/data/stimuli_toy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF14704-75B6-6144-9C74-4364810D53F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70867FB-18E5-824E-9554-3732ED11527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{BF0A98E9-F8D9-4949-AD77-1583D2976307}"/>
+    <workbookView xWindow="-31000" yWindow="860" windowWidth="29920" windowHeight="18660" xr2:uid="{BF0A98E9-F8D9-4949-AD77-1583D2976307}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>stimulus_id</t>
   </si>
@@ -216,9 +216,6 @@
     <t>This was the happy side of the house, for the south and east looked rather melancholy even under the brightest morning. The grounds here were more confined, the flower-beds showed no very careful tendance, and large clumps of trees, chiefly of sombre yews, had risen high, not ten yards from the windows. The building, of greenish stone, was in the old English style, not ugly, but small-windowed and melancholy-looking: the sort of house that must have children, many flowers, open windows, and little vistas of bright things, to make it seem a joyous home.</t>
   </si>
   <si>
-    <t>toy_text_practice_1</t>
-  </si>
-  <si>
     <t>toy_text_2</t>
   </si>
   <si>
@@ -294,6 +291,12 @@
   </si>
   <si>
     <t>This is a very long question that is completely useless, but we need it to test how a two-line question looks like!</t>
+  </si>
+  <si>
+    <t>toy_text_3</t>
+  </si>
+  <si>
+    <t>toy_text_practice_1toy_text_4</t>
   </si>
 </sst>
 </file>
@@ -354,12 +357,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -398,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -417,6 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +764,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,72 +865,72 @@
     </row>
     <row r="3" spans="1:13" ht="272" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
         <v>41</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="272" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>19</v>
@@ -931,13 +941,13 @@
     </row>
     <row r="5" spans="1:13" ht="221" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
+      <c r="C5" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -946,7 +956,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -970,9 +980,46 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>

--- a/data/stimuli_toy/multipleye_comprehension_questions_toy.xlsx
+++ b/data/stimuli_toy/multipleye_comprehension_questions_toy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/data/stimuli_toy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70867FB-18E5-824E-9554-3732ED11527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BF91DF-EC3B-1842-BDE1-E34A7D6DF4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31000" yWindow="860" windowWidth="29920" windowHeight="18660" xr2:uid="{BF0A98E9-F8D9-4949-AD77-1583D2976307}"/>
+    <workbookView xWindow="-29920" yWindow="5340" windowWidth="29920" windowHeight="18660" xr2:uid="{BF0A98E9-F8D9-4949-AD77-1583D2976307}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>text_type</t>
   </si>
   <si>
-    <t>text_annotated_spans</t>
-  </si>
-  <si>
     <t>question_id</t>
   </si>
   <si>
@@ -104,19 +101,7 @@
     <t>target</t>
   </si>
   <si>
-    <t>distractor_1</t>
-  </si>
-  <si>
-    <t>distractor_2</t>
-  </si>
-  <si>
-    <t>distractor_3</t>
-  </si>
-  <si>
     <t>target_span_text</t>
-  </si>
-  <si>
-    <t>distractor_1_span_text</t>
   </si>
   <si>
     <t>George Eliot - Middlemarch</t>
@@ -297,6 +282,21 @@
   </si>
   <si>
     <t>toy_text_practice_1toy_text_4</t>
+  </si>
+  <si>
+    <t>distractor_a</t>
+  </si>
+  <si>
+    <t>text_with_annotated_spans</t>
+  </si>
+  <si>
+    <t>distractor_span_text</t>
+  </si>
+  <si>
+    <t>distractor_b</t>
+  </si>
+  <si>
+    <t>distractor_c</t>
   </si>
 </sst>
 </file>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899C6EA3-68FC-004D-97A8-DCDE2573704E}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -795,31 +795,31 @@
         <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M1" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="356" x14ac:dyDescent="0.2">
@@ -830,37 +830,37 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="272" x14ac:dyDescent="0.2">
@@ -871,31 +871,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
         <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="272" x14ac:dyDescent="0.2">
@@ -906,37 +906,37 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="221" x14ac:dyDescent="0.2">
@@ -947,37 +947,37 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="221" x14ac:dyDescent="0.2">
@@ -988,37 +988,37 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">

--- a/data/stimuli_toy/multipleye_comprehension_questions_toy.xlsx
+++ b/data/stimuli_toy/multipleye_comprehension_questions_toy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/data/stimuli_toy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BF91DF-EC3B-1842-BDE1-E34A7D6DF4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5803F43B-8644-874A-8B5B-F8F4918AA6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29920" yWindow="5340" windowWidth="29920" windowHeight="18660" xr2:uid="{BF0A98E9-F8D9-4949-AD77-1583D2976307}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{BF0A98E9-F8D9-4949-AD77-1583D2976307}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={CACC8550-F5E4-2046-8B96-A9DB1E27561A}</author>
-    <author>tc={616F3D29-E64B-F54B-B753-D6FC9C73ACDA}</author>
     <author>tc={0026CF7B-0CC9-734D-B302-AF1097768FE9}</author>
   </authors>
   <commentList>
@@ -51,15 +50,7 @@
     The first few columns make it easier for me to process while creating the images but should not be touched :) </t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{616F3D29-E64B-F54B-B753-D6FC9C73ACDA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I think it would be easiest if you could add a $..$ around the target span and $$..$$ around the distractor_1 span, etc. (if applicable) —&gt; then I can very easily compute the word indices and add it to the air files. Counting the indices by hand it too tedious.. but if you also add the actual text (see other columns) I can double check that all is correct.</t>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{0026CF7B-0CC9-734D-B302-AF1097768FE9}">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{0026CF7B-0CC9-734D-B302-AF1097768FE9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>stimulus_id</t>
   </si>
@@ -86,12 +77,6 @@
     <t>experiment</t>
   </si>
   <si>
-    <t>text_type</t>
-  </si>
-  <si>
-    <t>question_id</t>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
@@ -99,9 +84,6 @@
   </si>
   <si>
     <t>target</t>
-  </si>
-  <si>
-    <t>target_span_text</t>
   </si>
   <si>
     <t>George Eliot - Middlemarch</t>
@@ -281,29 +263,41 @@
     <t>toy_text_3</t>
   </si>
   <si>
-    <t>toy_text_practice_1toy_text_4</t>
-  </si>
-  <si>
     <t>distractor_a</t>
   </si>
   <si>
-    <t>text_with_annotated_spans</t>
-  </si>
-  <si>
-    <t>distractor_span_text</t>
-  </si>
-  <si>
     <t>distractor_b</t>
   </si>
   <si>
     <t>distractor_c</t>
+  </si>
+  <si>
+    <t>stimulus_text_with_annotated_spans</t>
+  </si>
+  <si>
+    <t>stimulus_type</t>
+  </si>
+  <si>
+    <t>target_span_target_distractor_a_text</t>
+  </si>
+  <si>
+    <t>snippet_no</t>
+  </si>
+  <si>
+    <t>condition_no</t>
+  </si>
+  <si>
+    <t>question_no</t>
+  </si>
+  <si>
+    <t>distractor_span_distractor_b_text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -352,6 +346,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -407,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -427,6 +428,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,9 +457,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -491,7 +497,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -597,7 +603,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -739,7 +745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -750,10 +756,7 @@
   <threadedComment ref="A1" dT="2023-10-06T13:49:43.10" personId="{748F7033-6D7B-E748-9F66-10D69C5A4C41}" id="{CACC8550-F5E4-2046-8B96-A9DB1E27561A}">
     <text xml:space="preserve">The first few columns make it easier for me to process while creating the images but should not be touched :) </text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2023-10-06T13:53:29.21" personId="{748F7033-6D7B-E748-9F66-10D69C5A4C41}" id="{616F3D29-E64B-F54B-B753-D6FC9C73ACDA}">
-    <text>I think it would be easiest if you could add a $..$ around the target span and $$..$$ around the distractor_1 span, etc. (if applicable) —&gt; then I can very easily compute the word indices and add it to the air files. Counting the indices by hand it too tedious.. but if you also add the actual text (see other columns) I can double check that all is correct.</text>
-  </threadedComment>
-  <threadedComment ref="G1" dT="2023-10-06T13:47:01.97" personId="{748F7033-6D7B-E748-9F66-10D69C5A4C41}" id="{0026CF7B-0CC9-734D-B302-AF1097768FE9}">
+  <threadedComment ref="I1" dT="2023-10-06T13:47:01.97" personId="{748F7033-6D7B-E748-9F66-10D69C5A4C41}" id="{0026CF7B-0CC9-734D-B302-AF1097768FE9}">
     <text>Here it would be important to have a finite set of options (ideally something that is easy to machine-read, like local_literal_1, global_2, etc.)</text>
   </threadedComment>
 </ThreadedComments>
@@ -761,281 +764,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899C6EA3-68FC-004D-97A8-DCDE2573704E}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="40.83203125" customWidth="1"/>
-    <col min="5" max="5" width="40.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
+    <col min="7" max="7" width="40.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" customWidth="1"/>
+    <col min="15" max="15" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="J1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>43</v>
+      <c r="O1" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="356" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="356" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" ht="272" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="272" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" ht="272" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="272" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="M4" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="221" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>14</v>
+      <c r="O5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="221" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>14</v>
-      </c>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="E6" s="1"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
